--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243305EA-32EF-CC43-8DBB-D2B78B092094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB65B34-0401-AE43-A9BF-BB37959EE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
   <si>
     <t>keyword_en</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>" community participation"</t>
-  </si>
-  <si>
-    <t>" development assistance"</t>
   </si>
   <si>
     <t>" underdeveloped countr", " less developed countr", " least developed countr", " african countr", " island countr", " developing countr"</t>
@@ -629,8 +626,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}" name="_SDG10" displayName="_SDG10" ref="A1:L137" totalsRowShown="0">
-  <autoFilter ref="A1:L137" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}" name="_SDG10" displayName="_SDG10" ref="A1:L136" totalsRowShown="0">
+  <autoFilter ref="A1:L136" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L136">
+    <sortCondition ref="A1:A136"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4103716B-A7FB-7242-A314-9B0BCB58487E}" name="keyword_en" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{50B0D6C8-BA58-6E40-8313-89DBDDF997F5}" name="required_context_en" dataDxfId="2"/>
@@ -946,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE8DDB-069B-D141-A843-2029E7322BC0}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1103,30 +1103,30 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -1135,7 +1135,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -1144,17 +1144,15 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,64 +1187,66 @@
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -1257,7 +1257,9 @@
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1277,9 +1279,7 @@
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1295,7 +1295,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -1303,25 +1303,23 @@
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1335,7 +1333,9 @@
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -1351,16 +1351,16 @@
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1377,16 +1377,16 @@
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C45" s="1"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1"/>
     </row>
@@ -1413,7 +1413,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1"/>
     </row>
@@ -1422,9 +1422,11 @@
         <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1433,9 +1435,7 @@
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1451,36 +1451,36 @@
         <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -1489,16 +1489,16 @@
         <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1"/>
     </row>
@@ -1506,32 +1506,32 @@
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1541,25 +1541,25 @@
       <c r="B62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -1577,7 +1577,7 @@
         <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -1586,7 +1586,7 @@
         <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1"/>
     </row>
@@ -1595,7 +1595,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -1604,7 +1604,7 @@
         <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1"/>
     </row>
@@ -1613,16 +1613,16 @@
         <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1"/>
     </row>
@@ -1667,7 +1667,7 @@
         <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1"/>
     </row>
@@ -1676,7 +1676,7 @@
         <v>96</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1"/>
     </row>
@@ -1687,52 +1687,52 @@
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1"/>
     </row>
@@ -1741,7 +1741,7 @@
         <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1"/>
     </row>
@@ -1750,7 +1750,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1"/>
     </row>
@@ -1759,7 +1759,7 @@
         <v>104</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1"/>
     </row>
@@ -1770,25 +1770,25 @@
       <c r="B87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1"/>
     </row>
@@ -1805,16 +1805,16 @@
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1"/>
     </row>
@@ -1840,35 +1840,35 @@
         <v>113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,32 +1893,32 @@
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,27 +1926,27 @@
         <v>124</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -1954,16 +1954,16 @@
       <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1"/>
     </row>
@@ -1980,9 +1980,11 @@
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -1991,9 +1993,7 @@
       <c r="B112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
@@ -2009,27 +2009,27 @@
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C116" s="1"/>
     </row>
@@ -2038,7 +2038,7 @@
         <v>138</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1"/>
     </row>
@@ -2046,32 +2046,32 @@
       <c r="A118" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>143</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1"/>
     </row>
@@ -2088,16 +2088,16 @@
         <v>144</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -2133,16 +2133,18 @@
         <v>150</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>12</v>
@@ -2155,34 +2157,32 @@
       <c r="B130" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -2209,18 +2209,9 @@
         <v>161</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB65B34-0401-AE43-A9BF-BB37959EE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0BB22-4D8E-3043-A055-C27CF8130F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
   <si>
     <t>keyword_en</t>
   </si>
@@ -524,10 +524,13 @@
     <t>"poverty reduction"</t>
   </si>
   <si>
-    <t xml:space="preserve"> " international migration"</t>
-  </si>
-  <si>
     <t>"  two-point discrimination"</t>
+  </si>
+  <si>
+    <t>" international migration"</t>
+  </si>
+  <si>
+    <t>" Altersschwäche"</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,18 +578,18 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -948,15 +951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE8DDB-069B-D141-A843-2029E7322BC0}">
   <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="35.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -1006,600 +1007,603 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -1608,7 +1612,7 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -1617,7 +1621,7 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -1626,7 +1630,7 @@
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>91</v>
       </c>
@@ -1635,7 +1639,7 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>92</v>
       </c>
@@ -1644,7 +1648,7 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>93</v>
       </c>
@@ -1653,7 +1657,7 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
@@ -1662,7 +1666,7 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>97</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -1700,14 +1704,14 @@
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
@@ -1736,7 +1740,7 @@
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
@@ -1745,7 +1749,7 @@
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -1763,7 +1767,7 @@
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
@@ -1801,14 +1805,14 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
@@ -1817,7 +1821,7 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -1826,7 +1830,7 @@
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>112</v>
       </c>
@@ -1835,7 +1839,7 @@
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
@@ -1855,14 +1859,14 @@
       </c>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
@@ -1871,7 +1875,7 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
@@ -1880,7 +1884,7 @@
       </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
@@ -1889,14 +1893,14 @@
       </c>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
@@ -1905,14 +1909,14 @@
       </c>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
@@ -1921,7 +1925,7 @@
       </c>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>124</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
@@ -1941,7 +1945,7 @@
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
@@ -1950,14 +1954,14 @@
       </c>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
@@ -1966,7 +1970,7 @@
       </c>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
@@ -1995,7 +1999,7 @@
       </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
@@ -2004,7 +2008,7 @@
       </c>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -2024,7 +2028,7 @@
       </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>137</v>
       </c>
@@ -2033,7 +2037,7 @@
       </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>138</v>
       </c>
@@ -2042,14 +2046,14 @@
       </c>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>140</v>
       </c>
@@ -2058,14 +2062,14 @@
       </c>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>142</v>
       </c>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>143</v>
       </c>
@@ -2083,7 +2087,7 @@
       </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>144</v>
       </c>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>146</v>
       </c>
@@ -2101,7 +2105,7 @@
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>147</v>
       </c>
@@ -2110,7 +2114,7 @@
       </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>148</v>
       </c>
@@ -2119,7 +2123,7 @@
       </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>149</v>
       </c>
@@ -2128,7 +2132,7 @@
       </c>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>150</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>152</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>153</v>
       </c>
@@ -2159,7 +2163,7 @@
       </c>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
@@ -2168,7 +2172,7 @@
       </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>156</v>
       </c>
@@ -2177,7 +2181,7 @@
       </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>158</v>
       </c>
@@ -2186,7 +2190,7 @@
       </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>159</v>
       </c>
@@ -2195,7 +2199,7 @@
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>160</v>
       </c>
@@ -2204,7 +2208,7 @@
       </c>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>

--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0BB22-4D8E-3043-A055-C27CF8130F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47D3D69-912B-3F45-9C82-9E3CA6C08284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
   <si>
     <t>keyword_en</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>" fairness"</t>
-  </si>
-  <si>
-    <t>" FDI "</t>
   </si>
   <si>
     <t>" financial flow"</t>
@@ -578,18 +575,6 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -615,6 +600,18 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -629,24 +626,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}" name="_SDG10" displayName="_SDG10" ref="A1:L136" totalsRowShown="0">
-  <autoFilter ref="A1:L136" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L136">
-    <sortCondition ref="A1:A136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}" name="_SDG10" displayName="_SDG10" ref="A1:L135" totalsRowShown="0">
+  <autoFilter ref="A1:L135" xr:uid="{92FC11AA-46CA-AB44-AAD2-09C35EEE50A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L135">
+    <sortCondition ref="A1:A135"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4103716B-A7FB-7242-A314-9B0BCB58487E}" name="keyword_en" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{50B0D6C8-BA58-6E40-8313-89DBDDF997F5}" name="required_context_en" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A6DBC7B7-F5E9-9049-8C56-066A34922FC6}" name="forbidden_context_en" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{6168945F-6C9D-CD46-92B9-E27196194A02}" name="keyword_de" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D2178E91-0F1A-FF47-A7D1-8E14113E72AE}" name="required_context_de" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{70F57111-1AA7-3942-95A8-46450B3E6A18}" name="forbidden_context_de" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{92595401-A055-774C-8F7F-755231B6860F}" name="keyword_fr" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{51FAE2BE-DFB5-D643-8EB3-AD074A6A3DF9}" name="required_context_fr" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{E84DD747-8B95-5745-9733-661202B6E25F}" name="forbidden_context_fr" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{80675793-449A-6747-B6CF-8BA7CC08CFAB}" name="keyword_it" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{48403B5B-EA4A-1844-98FD-5DE16B166598}" name="required_context_it" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{F688FCFA-0F97-7444-A74F-02C2D57415F0}" name="forbidden_context_it" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4103716B-A7FB-7242-A314-9B0BCB58487E}" name="keyword_en" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{50B0D6C8-BA58-6E40-8313-89DBDDF997F5}" name="required_context_en" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A6DBC7B7-F5E9-9049-8C56-066A34922FC6}" name="forbidden_context_en" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6168945F-6C9D-CD46-92B9-E27196194A02}" name="keyword_de" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D2178E91-0F1A-FF47-A7D1-8E14113E72AE}" name="required_context_de" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{70F57111-1AA7-3942-95A8-46450B3E6A18}" name="forbidden_context_de" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{92595401-A055-774C-8F7F-755231B6860F}" name="keyword_fr" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{51FAE2BE-DFB5-D643-8EB3-AD074A6A3DF9}" name="required_context_fr" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E84DD747-8B95-5745-9733-661202B6E25F}" name="forbidden_context_fr" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{80675793-449A-6747-B6CF-8BA7CC08CFAB}" name="keyword_it" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{48403B5B-EA4A-1844-98FD-5DE16B166598}" name="required_context_it" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F688FCFA-0F97-7444-A74F-02C2D57415F0}" name="forbidden_context_it" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE8DDB-069B-D141-A843-2029E7322BC0}">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1011,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1342,19 +1339,21 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1"/>
     </row>
@@ -1363,16 +1362,16 @@
         <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1381,7 +1380,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1"/>
     </row>
@@ -1399,7 +1398,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1"/>
     </row>
@@ -1408,9 +1407,11 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1419,9 +1420,7 @@
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1437,54 +1436,54 @@
         <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -1492,32 +1491,32 @@
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1527,25 +1526,25 @@
       <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1"/>
     </row>
@@ -1558,12 +1557,12 @@
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -1572,52 +1571,52 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -1657,21 +1656,21 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1"/>
     </row>
@@ -1682,79 +1681,79 @@
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1"/>
     </row>
@@ -1765,29 +1764,29 @@
       <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -1800,19 +1799,19 @@
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
@@ -1826,44 +1825,44 @@
         <v>111</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1888,96 +1887,98 @@
       <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -1986,9 +1987,7 @@
       <c r="B111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -2004,95 +2003,95 @@
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1"/>
     </row>
@@ -2128,16 +2127,18 @@
         <v>149</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>12</v>
@@ -2150,38 +2151,36 @@
       <c r="B129" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>158</v>
       </c>
@@ -2190,7 +2189,7 @@
       </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>159</v>
       </c>
@@ -2199,23 +2198,14 @@
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8821D648-5816-B24B-82F3-15126C33285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05271D-1AB6-9942-89E2-D9ED8B169A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05271D-1AB6-9942-89E2-D9ED8B169A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A321DD2D-EE11-0749-9AC3-7836DA8E5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
   <si>
     <t>keyword_en</t>
   </si>
@@ -72,6 +72,459 @@
   </si>
   <si>
     <t>forbidden_context_it</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>empowerment</t>
+  </si>
+  <si>
+    <t>" discrimination", " prejudice", " inclusion", " exclusion"</t>
+  </si>
+  <si>
+    <t>" age disabilit"</t>
+  </si>
+  <si>
+    <t>" age discrimination"</t>
+  </si>
+  <si>
+    <t>" ageis"</t>
+  </si>
+  <si>
+    <t>" agency monitoring"</t>
+  </si>
+  <si>
+    <t>" agency regulation"</t>
+  </si>
+  <si>
+    <t>" bank monitoring"</t>
+  </si>
+  <si>
+    <t>" bank regulation"</t>
+  </si>
+  <si>
+    <t>" banking regulation"</t>
+  </si>
+  <si>
+    <t>" cognitive disabilit"</t>
+  </si>
+  <si>
+    <t>" discriminat", " prejudice", " inclusion", " exclusion"</t>
+  </si>
+  <si>
+    <t>" community participation"</t>
+  </si>
+  <si>
+    <t>" underdeveloped countr", " less developed countr", " least developed countr", " african countr", " island countr", " developing countr"</t>
+  </si>
+  <si>
+    <t>" development gap"</t>
+  </si>
+  <si>
+    <t>" developmental disabilit"</t>
+  </si>
+  <si>
+    <t>" differential treatment"</t>
+  </si>
+  <si>
+    <t>" digital inclusion"</t>
+  </si>
+  <si>
+    <t>" disabilit"</t>
+  </si>
+  <si>
+    <t>" psych"</t>
+  </si>
+  <si>
+    <t>" disability discrimination"</t>
+  </si>
+  <si>
+    <t>" disability exclusion"</t>
+  </si>
+  <si>
+    <t>" disability inclusion"</t>
+  </si>
+  <si>
+    <t>" disability prejudice"</t>
+  </si>
+  <si>
+    <t>" disability status"</t>
+  </si>
+  <si>
+    <t>" discriminat"</t>
+  </si>
+  <si>
+    <t>" age", " sex", " disabilit", " race", " racial", " ethnic", " origin", " relig", " economic", " status"</t>
+  </si>
+  <si>
+    <t>" discriminatory law"</t>
+  </si>
+  <si>
+    <t>" economic disabilit"</t>
+  </si>
+  <si>
+    <t>" economic empowerment"</t>
+  </si>
+  <si>
+    <t>" economic growth"</t>
+  </si>
+  <si>
+    <t>" economic inclusion"</t>
+  </si>
+  <si>
+    <t>" economic marginalization"</t>
+  </si>
+  <si>
+    <t>" economic reform polic"</t>
+  </si>
+  <si>
+    <t>" economic transformation"</t>
+  </si>
+  <si>
+    <t>" educational inclusion"</t>
+  </si>
+  <si>
+    <t>" emigration"</t>
+  </si>
+  <si>
+    <t>" ethnic disabilit"</t>
+  </si>
+  <si>
+    <t>" ethnic discrimination"</t>
+  </si>
+  <si>
+    <t>" ethnicity disabilit"</t>
+  </si>
+  <si>
+    <t>" everyday discrimination"</t>
+  </si>
+  <si>
+    <t>" exclusionary"</t>
+  </si>
+  <si>
+    <t>" fairness"</t>
+  </si>
+  <si>
+    <t>" financial flow"</t>
+  </si>
+  <si>
+    <t>" financial inclusion"</t>
+  </si>
+  <si>
+    <t>" financial institution"</t>
+  </si>
+  <si>
+    <t>" monitoring", " regulation"</t>
+  </si>
+  <si>
+    <t>" financial market"</t>
+  </si>
+  <si>
+    <t>" financial regulation"</t>
+  </si>
+  <si>
+    <t>" financial soundness indicator"</t>
+  </si>
+  <si>
+    <t>" financial system"</t>
+  </si>
+  <si>
+    <t>" foreign direct investment"</t>
+  </si>
+  <si>
+    <t>" gender discrimination"</t>
+  </si>
+  <si>
+    <t>" gender equalit"</t>
+  </si>
+  <si>
+    <t>" global market"</t>
+  </si>
+  <si>
+    <t>" household income"</t>
+  </si>
+  <si>
+    <t>" discrimination", " prejudice", " inclusion", " exclusion", " polic"</t>
+  </si>
+  <si>
+    <t>" immigration polic"</t>
+  </si>
+  <si>
+    <t>" immigration"</t>
+  </si>
+  <si>
+    <t>" inclusion"</t>
+  </si>
+  <si>
+    <t>age, sex, disability, race, ethnicity, origin, religion, economic, status, discrimination, prejudice, social</t>
+  </si>
+  <si>
+    <t>" inclusive education"</t>
+  </si>
+  <si>
+    <t>" inclusive polic"</t>
+  </si>
+  <si>
+    <t>" income distribution"</t>
+  </si>
+  <si>
+    <t>" income growth"</t>
+  </si>
+  <si>
+    <t>" income inequalit"</t>
+  </si>
+  <si>
+    <t>" inflation"</t>
+  </si>
+  <si>
+    <t>" institution monitoring"</t>
+  </si>
+  <si>
+    <t>" institution regulation"</t>
+  </si>
+  <si>
+    <t>" intellectual disabilit"</t>
+  </si>
+  <si>
+    <t>" internal migration"</t>
+  </si>
+  <si>
+    <t>" international human right"</t>
+  </si>
+  <si>
+    <t>" irregular migration"</t>
+  </si>
+  <si>
+    <t>" labour migration"</t>
+  </si>
+  <si>
+    <t>discrimination, prejudice, inclusion, exclusion, orderly, safe, regular, responsible, policies</t>
+  </si>
+  <si>
+    <t>" learning disabilit"</t>
+  </si>
+  <si>
+    <t>" lending monitoring"</t>
+  </si>
+  <si>
+    <t>" lending regulation"</t>
+  </si>
+  <si>
+    <t>" market monitoring"</t>
+  </si>
+  <si>
+    <t>" market regulation"</t>
+  </si>
+  <si>
+    <t>" mental disabilit"</t>
+  </si>
+  <si>
+    <t>" microaggression"</t>
+  </si>
+  <si>
+    <t>" migrant remittance"</t>
+  </si>
+  <si>
+    <t>" migration flow"</t>
+  </si>
+  <si>
+    <t>" migration polic"</t>
+  </si>
+  <si>
+    <t>" migration"</t>
+  </si>
+  <si>
+    <t>" mild disabilit"</t>
+  </si>
+  <si>
+    <t>" mistreatment"</t>
+  </si>
+  <si>
+    <t>" multiple disabilit"</t>
+  </si>
+  <si>
+    <t>" non-discrimination"</t>
+  </si>
+  <si>
+    <t>" north-south divide"</t>
+  </si>
+  <si>
+    <t>" old age"</t>
+  </si>
+  <si>
+    <t>" organisation monitoring"</t>
+  </si>
+  <si>
+    <t>" organisation regulation"</t>
+  </si>
+  <si>
+    <t>" origin disabilit"</t>
+  </si>
+  <si>
+    <t>" people living below median income"</t>
+  </si>
+  <si>
+    <t>" perceived discrimination"</t>
+  </si>
+  <si>
+    <t>" physical disabilit"</t>
+  </si>
+  <si>
+    <t>" political inclusion"</t>
+  </si>
+  <si>
+    <t>" prejudice"</t>
+  </si>
+  <si>
+    <t>" sex", " disabilit", " race", " ethnic", " origin", "relig"</t>
+  </si>
+  <si>
+    <t>" race disabilit"</t>
+  </si>
+  <si>
+    <t>" racial discrimination"</t>
+  </si>
+  <si>
+    <t>" racism"</t>
+  </si>
+  <si>
+    <t>" reduce inequalit"</t>
+  </si>
+  <si>
+    <t>" religion disabilit"</t>
+  </si>
+  <si>
+    <t>" remittance corridor"</t>
+  </si>
+  <si>
+    <t>" remittance"</t>
+  </si>
+  <si>
+    <t>" resettlement"</t>
+  </si>
+  <si>
+    <t>" responsible migration"</t>
+  </si>
+  <si>
+    <t>" return migration"</t>
+  </si>
+  <si>
+    <t>" severe disabilit"</t>
+  </si>
+  <si>
+    <t>" sex disabilit"</t>
+  </si>
+  <si>
+    <t>" sexism"</t>
+  </si>
+  <si>
+    <t>" significant disabilit"</t>
+  </si>
+  <si>
+    <t>" social exclusion"</t>
+  </si>
+  <si>
+    <t>" social inclusion"</t>
+  </si>
+  <si>
+    <t>" social integration"</t>
+  </si>
+  <si>
+    <t>" social protection polic"</t>
+  </si>
+  <si>
+    <t>" immigr"</t>
+  </si>
+  <si>
+    <t>" social protection"</t>
+  </si>
+  <si>
+    <t>" polic"</t>
+  </si>
+  <si>
+    <t>" social welfare"</t>
+  </si>
+  <si>
+    <t>" special need"</t>
+  </si>
+  <si>
+    <t>" special treatment for developing countr"</t>
+  </si>
+  <si>
+    <t>" stereotype threat"</t>
+  </si>
+  <si>
+    <t>" stigma"</t>
+  </si>
+  <si>
+    <t>" tariff"</t>
+  </si>
+  <si>
+    <t>" visual impairment"</t>
+  </si>
+  <si>
+    <t>" voting right"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" united nation", " world bank ", " world trade organisation ", " WTO ", " international monetary fund ", " IMF ", " world health organisation ", " WHO ", " unesco ", " unicef ", " fao " </t>
+  </si>
+  <si>
+    <t>" vulnerable countr"</t>
+  </si>
+  <si>
+    <t>" vulnerable nation"</t>
+  </si>
+  <si>
+    <t>" vulnerable state"</t>
+  </si>
+  <si>
+    <t>" workplace discrimination"</t>
+  </si>
+  <si>
+    <t>"developing countr"</t>
+  </si>
+  <si>
+    <t>" tariff", " zero-tariff", " duty-free access "</t>
+  </si>
+  <si>
+    <t>"discriminatory policy"</t>
+  </si>
+  <si>
+    <t>"emigration"</t>
+  </si>
+  <si>
+    <t>"equal"</t>
+  </si>
+  <si>
+    <t>" education", " age", sex, " disabilit", " race", " ethnic", " origin", " religion", " economic stat", " discrimination", " prejudice", " inclusion", " exclusion"</t>
+  </si>
+  <si>
+    <t>"equality"</t>
+  </si>
+  <si>
+    <t>" education", " age", sex, " disabilit", " race", " ethnic", " origin", " religion", " economic stat", " discrimination", " prejudice", " increase"</t>
+  </si>
+  <si>
+    <t>"equity"</t>
+  </si>
+  <si>
+    <t>"invisible disability"</t>
+  </si>
+  <si>
+    <t>"migration polic"</t>
+  </si>
+  <si>
+    <t>"poverty reduction"</t>
+  </si>
+  <si>
+    <t>"  two-point discrimination"</t>
+  </si>
+  <si>
+    <t>" international migration"</t>
+  </si>
+  <si>
+    <t>" Altersschwäche"</t>
   </si>
 </sst>
 </file>
@@ -492,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE8DDB-069B-D141-A843-2029E7322BC0}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,674 +1001,1207 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+    <row r="69" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+    <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+    <row r="116" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+    <row r="120" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+    <row r="122" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+    <row r="130" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+    <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+    <row r="134" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C135" s="1"/>
     </row>
   </sheetData>

--- a/data/sdgs/SDG10.xlsx
+++ b/data/sdgs/SDG10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A321DD2D-EE11-0749-9AC3-7836DA8E5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14527E46-5184-A74D-AD18-A9AD7D562603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2220" windowWidth="28800" windowHeight="15440" xr2:uid="{D6C97B79-7F02-8548-AA9A-E5D64A7E3DCA}"/>
   </bookViews>
@@ -482,9 +482,6 @@
     <t>" workplace discrimination"</t>
   </si>
   <si>
-    <t>"developing countr"</t>
-  </si>
-  <si>
     <t>" tariff", " zero-tariff", " duty-free access "</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>" Altersschwäche"</t>
+  </si>
+  <si>
+    <t>" developing countr"</t>
   </si>
 </sst>
 </file>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE8DDB-069B-D141-A843-2029E7322BC0}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>14</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>12</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>12</v>
@@ -2152,25 +2152,25 @@
     </row>
     <row r="130" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>14</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>14</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="134" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>14</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>12</v>
